--- a/mageproductcsv/resources/delonghi-coffee-machine.xlsx
+++ b/mageproductcsv/resources/delonghi-coffee-machine.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16640" tabRatio="500"/>
+    <workbookView xWindow="-28620" yWindow="0" windowWidth="25600" windowHeight="16640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -78,9 +78,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>delonghi-ecam44.660.b-eletta-cappuccino-bean-to-cup-coffee-machine-black-1268-p.jpg</t>
-  </si>
-  <si>
     <t>&lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i1/425389924/TB2UszAkXXXXXasXpXXXXXXXXXX_!!425389924.jpg' /&gt;,&lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i1/425389924/TB2QZHokXXXXXaWXpXXXXXXXXXX_!!425389924.jpg' /&gt;,&lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i4/425389924/TB2CaHQkXXXXXbKXXXXXXXXXXXX_!!425389924.jpg' /&gt;</t>
   </si>
   <si>
@@ -112,9 +109,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>delonghiETAM29.510.SB.jpg</t>
-  </si>
-  <si>
     <t>&lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i4/355123897/TB2_PT8dVXXXXaaXXXXXXXXXXXX-355123897.jpg' /&gt;, &lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i2/355123897/TB2VsTTdVXXXXcZXXXXXXXXXXXX-355123897.jpg' /&gt;, &lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i2/287136534/TB2NHakkXXXXXX8XXXXXXXXXXXX_!!287136534.jpg' /&gt;</t>
   </si>
   <si>
@@ -134,9 +128,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>delonghiETAM29.510.B.jpg</t>
-  </si>
-  <si>
     <t>&lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i3/345244248/TB2IfWakpXXXXbAXpXXXXXXXXXX_!!345244248.jpg' /&gt;,&lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i3/345244248/TB2te5DkpXXXXazXXXXXXXXXXXX_!!345244248.jpg' /&gt;</t>
   </si>
   <si>
@@ -164,9 +155,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>delonghi-ETAM_29620SB_SX_hero.jpg</t>
-  </si>
-  <si>
     <t>产品特点：1、通过符合人体工程学倾斜设置，传感器面板与一个按钮直接选择。个别编程功能“我的咖啡”；2、“长咖啡”功能传统早餐咖啡；3、两行文本显示；专业奶沫器与Varioregler准备的卡布奇诺、拿铁玛奇朵或热牛奶；4、可拆卸的低维护组：卫生，易于清洁。5、集成德龙水过滤器；Vorbruh-香气-系统的完美咖啡享受；400g咖啡豆容器带香气保护盖；6、适合咖啡豆和咖啡粉；额外软锥形毛刺磨床（13阶段），磨程度 都可以单独调整；7、五个预设的咖啡优势从非常温和到非常强；可移动1.9L水箱；热水可调节的咖啡温度从低到高；8、完全自动冲洗和除垢方案，高度可调咖啡喷为达142毫米高；可移动滴水盘与水位指示器。产品尺寸：26*47*36；重量：11KG；泵压力：15；咖啡豆容积：400克。</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -189,9 +177,6 @@
   <si>
     <t>1、两行文本显示；专业奶沫器与Varioregler准备的卡布奇诺、拿铁玛奇朵或热牛奶；2、可拆卸的低维护组。3、集成德龙水过滤器；Vorbruh-香气-系统的完美咖啡享受；400g咖啡豆容器带香气保护盖；4、适合咖啡豆和咖啡粉；额外软锥形毛刺磨床（13阶段）5、五个预设的咖啡优势从非常温和到非常强；可移动1.9L水箱；6、完全自动冲洗和除垢方案，高度可调咖啡喷为达142毫米高；可移动滴水盘与水位指示器</t>
     <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>delonghi-ECAM45.326.S.jpg</t>
   </si>
   <si>
     <t>&lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i2/151860970/TB2e4r1jVXXXXaWXpXXXXXXXXXX_!!151860970.jpg' /&gt;,&lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i3/151860970/TB20JssjVXXXXbkXXXXXXXXXXXX_!!151860970.jpg' /&gt;,&lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i1/151860970/TB2CnfYjVXXXXcAXpXXXXXXXXXX_!!151860970.jpg' /&gt;</t>
@@ -222,9 +207,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>de-longhi-kaffeevollautomat-eletta-ecam-45-366-b-hochglanz-schwarz.jpg</t>
-  </si>
-  <si>
     <t>&lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i1/355123897/TB2JzoycXXXXXcNXXXXXXXXXXXX-355123897.jpg' /&gt;</t>
   </si>
   <si>
@@ -244,9 +226,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>delonghiECAM45.366.W.jpg</t>
-  </si>
-  <si>
     <t>&lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i4/350832635/TB2IDxSaVXXXXXsXXXXXXXXXXXX_!!350832635.jpg' /&gt;</t>
   </si>
   <si>
@@ -270,9 +249,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>delonghiETAM29.660.SB.jpg</t>
-  </si>
-  <si>
     <t>&lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i2/1629358780/TB2GbRciVXXXXaEXXXXXXXXXXXX_!!1629358780.jpg' /&gt;,&lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i1/1629358780/TB2OoQFiFXXXXcTXpXXXXXXXXXX_!!1629358780.jpg' /&gt;,&lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i1/1629358780/TB2HF0fiVXXXXXMXXXXXXXXXXXX_!!1629358780.jpg' /&gt;</t>
   </si>
   <si>
@@ -298,9 +274,6 @@
   <si>
     <t>双锅炉设计，一次萃取可制作两杯咖啡；独立的牛奶容器；单独的卡布基诺装置。</t>
     <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>delonghiECAM28.465.jpg</t>
   </si>
   <si>
     <t>&lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i4/2088142081/TB2P1ideFXXXXXaXXXXXXXXXXXX-2088142081.jpg' /&gt;,&lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i2/2088142081/TB2t1FZeFXXXXclXXXXXXXXXXXX-2088142081.jpg' /&gt;,&lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i3/2088142081/TB2mcl4eFXXXXbQXXXXXXXXXXXX-2088142081.jpg' /&gt;,&lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i4/2088142081/TB2Sx5XeFXXXXXSXXXXXXXXXXXX-2088142081.jpg' /&gt;</t>
@@ -359,9 +332,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>delonghiECAM04.120.S.jpg</t>
-  </si>
-  <si>
     <t>&lt;img  width='100%'  src='https://img.alicdn.com/i4/TB1d7_0KXXXXXcRXFXXL6TaGpXX' /&gt;, &lt;img  width='100%'  src='https://img.alicdn.com/i7/TB16kb9KXXXXXXXXFXXL6TaGpXX, &lt;img  width='100%'  src='https://img.alicdn.com/i7/TB1gCf8KXXXXXXCXFXXL6TaGpXX' /&gt;</t>
   </si>
   <si>
@@ -389,9 +359,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>delonghiETAM36.365M.jpg</t>
-  </si>
-  <si>
     <t>&lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i4/39984129/TB2tfGObFXXXXciXXXXXXXXXXXX_!!39984129.jpg' /&gt;, &lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i1/350832635/TB2eHuXaVXXXXbiXXXXXXXXXXXX_!!350832635.jpg' /&gt;, &lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i1/350832635/TB2XQp_aVXXXXchXXXXXXXXXXXX_!!350832635.jpg' /&gt;</t>
   </si>
   <si>
@@ -415,9 +382,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>delonghiETAM36.365MB.jpg</t>
-  </si>
-  <si>
     <t>产品特点：1、同时还可选择滚烫或温度适中的咖啡温度。咖啡豆及咖啡粉均可使用一次萃取可制作两杯咖啡可拆卸式萃取器；2、新型的咖啡研磨器具，具有13种研磨程度设置；3、可调节咖啡杯量、可调节水量、电子温控技术、预萃取功能；4、可调节咖啡流出口高度，从95mm-155mm,适合高度不同的杯；5、自动开关机功能、缺水及缺豆指示灯；6、咖啡杯量统计；咖啡粉渣清除提示。产品尺寸：42*28.5*38；重量：13KG；泵压力：15；咖啡豆容积：250克。</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -440,9 +404,6 @@
   <si>
     <t>配有德龙独有的自动卡布基诺系统的全自动咖啡机，轻触一键即可得到各种您钟爱的饮品：意式浓缩咖啡、卡布基诺咖啡、拿铁玛奇朵、咖啡拿铁、牛奶或淡咖啡。配备4行文本显示的触摸屏设计，随时可根据您的喜好自定义制作咖啡，同时具有暖杯功能和水过滤器。</t>
     <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>delonghi-kaffeevollautomat-primadonna-avant-esam-6750-edelstahl-silberfarben-15288110.jpg</t>
   </si>
   <si>
     <t>&lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i2/116454327/TB29OHmdpXXXXXzXpXXXXXXXXXX_!!116454327.jpg' /&gt;, &lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i1/35943768/TB2odPCcXXXXXbzXXXXXXXXXXXX_!!35943768.jpg' /&gt;, &lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i4/35943768/TB25KLxcXXXXXaHXpXXXXXXXXXX_!!35943768.jpg' /&gt;</t>
@@ -490,9 +451,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>delonghiESAM3600.jpg</t>
-  </si>
-  <si>
     <t>产品特点：1、一键式自动卡布基诺系统，仅需轻触一键，即可将蒸汽，空气和牛奶融合在一起，产生丰富的牛奶泡沫，配制出味道极佳的卡布基诺咖啡 ；                                                         2、 个性化的咖啡萃取，5种浓淡选择，可设定不同温度；                                                                                                                                    3、 可使用咖啡豆或咖啡粉；
           4、最新宁静型综合咖啡研磨器具有13种研磨设置 
           5、可调节咖啡粉用量及水量 
@@ -509,10 +467,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>De Longhi德龙ESAM3500S全自动咖啡机</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>De Longhi德龙ESAM3500S全自动咖啡机-「德藝緻」德國精品百貨</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -528,10 +482,6 @@
     <t>全自动的数字意式特浓咖啡机
 15Bar的压力泵。
 “卡布其诺系统”将牛奶，蒸汽和空气融合在一起，产生丰富奶末。</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://img.alicdn.com/imgextra/i3/1822891408/TB2ToktjpXXXXXoXpXXXXXXXXXX_!!1822891408.jpg</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
@@ -1694,15 +1644,90 @@
   <si>
     <t>brand</t>
   </si>
+  <si>
+    <t>/delonghi/delonghi-ecam44.660.b-eletta-cappuccino-bean-to-cup-coffee-machine-black-1268-p.jpg</t>
+  </si>
+  <si>
+    <t>/delonghi/delonghiETAM29.510.SB.jpg</t>
+  </si>
+  <si>
+    <t>/delonghi/delonghiETAM29.510.B.jpg</t>
+  </si>
+  <si>
+    <t>/delonghi/delonghi-ETAM_29620SB_SX_hero.jpg</t>
+  </si>
+  <si>
+    <t>/delonghi/delonghi-ECAM45.326.S.jpg</t>
+  </si>
+  <si>
+    <t>/delonghi/de-longhi-kaffeevollautomat-eletta-ecam-45-366-b-hochglanz-schwarz.jpg</t>
+  </si>
+  <si>
+    <t>/delonghi/delonghiECAM45.366.W.jpg</t>
+  </si>
+  <si>
+    <t>/delonghi/delonghiETAM29.660.SB.jpg</t>
+  </si>
+  <si>
+    <t>/delonghi/delonghiECAM28.465.jpg</t>
+  </si>
+  <si>
+    <t>/delonghi/delonghiECAM04.120.S.jpg</t>
+  </si>
+  <si>
+    <t>/delonghi/delonghiETAM36.365M.jpg</t>
+  </si>
+  <si>
+    <t>/delonghi/delonghiETAM36.365MB.jpg</t>
+  </si>
+  <si>
+    <t>/delonghi/delonghi-kaffeevollautomat-primadonna-avant-esam-6750-edelstahl-silberfarben-15288110.jpg</t>
+  </si>
+  <si>
+    <t>/delonghi/delonghiESAM3600.jpg</t>
+  </si>
+  <si>
+    <r>
+      <t>De Longhi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>德龙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ESAM3500S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>全自动咖啡机</t>
+    </r>
+  </si>
+  <si>
+    <t>/delonghi/de-longhi-ESAM3500S.jpg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1715,6 +1740,22 @@
       <color theme="1"/>
       <name val="Libian SC Regular"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1746,15 +1787,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1766,14 +1812,25 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="9">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2106,44 +2163,49 @@
   <dimension ref="A1:M55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="4" max="4" width="35.6640625" customWidth="1"/>
+    <col min="9" max="9" width="94.5" customWidth="1"/>
+    <col min="10" max="10" width="255.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -2155,7 +2217,7 @@
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="6">
         <v>1688.88</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -2174,15 +2236,15 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
+        <v>376</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="L2" s="2"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13">
@@ -2190,34 +2252,34 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1339</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2">
-        <v>1339</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" t="s">
+        <v>377</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="K3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -2227,34 +2289,34 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6">
         <v>1288</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>378</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="K4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -2264,32 +2326,32 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="6">
+        <v>918</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="2">
-        <v>918</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="4"/>
+        <v>379</v>
+      </c>
+      <c r="J5" s="3"/>
       <c r="K5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -2299,34 +2361,34 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="6">
+        <v>762</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="2">
-        <v>762</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="I6" t="s">
+        <v>380</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="K6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -2336,34 +2398,34 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="6">
+        <v>999</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="2">
-        <v>999</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="I7" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="K7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -2373,34 +2435,34 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="6">
+        <v>999</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="2">
-        <v>999</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="I8" s="1" t="s">
-        <v>51</v>
+        <v>382</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -2410,34 +2472,34 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="2">
+        <v>46</v>
+      </c>
+      <c r="C9" s="6">
         <v>1999</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I9" t="s">
-        <v>58</v>
+        <v>383</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -2447,34 +2509,34 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="2">
+        <v>52</v>
+      </c>
+      <c r="C10" s="6">
         <v>2999</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="I10" t="s">
-        <v>66</v>
+        <v>384</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>9</v>
+        <v>58</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -2484,34 +2546,34 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="2">
+        <v>59</v>
+      </c>
+      <c r="C11" s="6">
         <v>599</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="I11" t="s">
-        <v>74</v>
+        <v>385</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -2521,34 +2583,34 @@
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="2">
+        <v>66</v>
+      </c>
+      <c r="C12" s="6">
         <v>1399</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="I12" t="s">
-        <v>82</v>
+        <v>386</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -2558,32 +2620,32 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" s="2">
+        <v>73</v>
+      </c>
+      <c r="C13" s="6">
         <v>1199</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="I13" t="s">
-        <v>89</v>
-      </c>
-      <c r="J13" s="4"/>
+        <v>387</v>
+      </c>
+      <c r="J13" s="3"/>
       <c r="K13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -2593,34 +2655,34 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C14" s="2">
+        <v>78</v>
+      </c>
+      <c r="C14" s="6">
         <v>1768</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I14" t="s">
-        <v>96</v>
+        <v>388</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -2630,69 +2692,69 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C15" s="2">
+        <v>85</v>
+      </c>
+      <c r="C15" s="6">
         <v>1090</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="I15" t="s">
-        <v>104</v>
-      </c>
-      <c r="J15" s="4"/>
+        <v>389</v>
+      </c>
+      <c r="J15" s="3"/>
       <c r="K15" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" ht="18">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C16" s="2">
+        <v>91</v>
+      </c>
+      <c r="C16" s="6">
         <v>999</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>106</v>
+        <v>390</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="I16" t="s">
-        <v>111</v>
+        <v>391</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -2702,34 +2764,34 @@
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C17" s="2">
+        <v>97</v>
+      </c>
+      <c r="C17" s="6">
         <v>900</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="I17" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -2739,30 +2801,30 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C18" s="2">
+        <v>105</v>
+      </c>
+      <c r="C18" s="6">
         <v>900</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="I18" s="1"/>
-      <c r="J18" s="4"/>
+      <c r="J18" s="3"/>
       <c r="K18" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -2772,34 +2834,34 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C19" s="2">
+        <v>110</v>
+      </c>
+      <c r="C19" s="6">
         <v>1999</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="I19" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -2809,34 +2871,34 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C20" s="2">
+        <v>118</v>
+      </c>
+      <c r="C20" s="6">
         <v>599</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="I20" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -2846,34 +2908,34 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C21" s="2">
+        <v>126</v>
+      </c>
+      <c r="C21" s="6">
         <v>599</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="I21" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -2883,34 +2945,34 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C22" s="2">
+        <v>134</v>
+      </c>
+      <c r="C22" s="6">
         <v>750</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="I22" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -2920,34 +2982,34 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C23" s="2">
+        <v>142</v>
+      </c>
+      <c r="C23" s="6">
         <v>1099</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="I23" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -2957,34 +3019,34 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C24" s="2">
+        <v>150</v>
+      </c>
+      <c r="C24" s="6">
         <v>1199</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="I24" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -2994,32 +3056,32 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C25" s="2">
+        <v>158</v>
+      </c>
+      <c r="C25" s="6">
         <v>199</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="I25" t="s">
-        <v>180</v>
-      </c>
-      <c r="J25" s="4"/>
+        <v>164</v>
+      </c>
+      <c r="J25" s="3"/>
       <c r="K25" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -3029,34 +3091,34 @@
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C26" s="2">
+        <v>165</v>
+      </c>
+      <c r="C26" s="6">
         <v>499</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="I26" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -3066,34 +3128,34 @@
         <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C27" s="2">
+        <v>173</v>
+      </c>
+      <c r="C27" s="6">
         <v>299</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="I27" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -3103,143 +3165,143 @@
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C28" s="2">
+        <v>173</v>
+      </c>
+      <c r="C28" s="6">
         <v>299</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="I28" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="5" t="s">
+      <c r="A29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C29" s="7">
+        <v>299</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C29" s="6">
+      <c r="G29" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="I29" t="s">
+        <v>191</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C30" s="7">
         <v>299</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="H29" s="5" t="s">
+      <c r="D30" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="I29" t="s">
-        <v>207</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="C30" s="6">
-        <v>299</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>214</v>
+      <c r="E30" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>198</v>
       </c>
       <c r="I30" t="s">
-        <v>215</v>
-      </c>
-      <c r="J30" s="7"/>
-      <c r="K30" s="5" t="s">
-        <v>9</v>
+        <v>199</v>
+      </c>
+      <c r="J30" s="5"/>
+      <c r="K30" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="C31" s="6">
+      <c r="A31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C31" s="7">
         <v>299</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>214</v>
+      <c r="D31" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>198</v>
       </c>
       <c r="I31" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="K31" s="5" t="s">
-        <v>9</v>
+        <v>205</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -3249,34 +3311,34 @@
         <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C32" s="6">
+        <v>206</v>
+      </c>
+      <c r="C32" s="7">
         <v>139</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="I32" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -3286,34 +3348,34 @@
         <v>0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C33" s="6">
+        <v>214</v>
+      </c>
+      <c r="C33" s="7">
         <v>499</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="I33" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
@@ -3323,34 +3385,34 @@
         <v>0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C34" s="6">
+        <v>222</v>
+      </c>
+      <c r="C34" s="7">
         <v>599</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="I34" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
@@ -3360,34 +3422,34 @@
         <v>0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C35" s="6">
+        <v>206</v>
+      </c>
+      <c r="C35" s="7">
         <v>139</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="I35" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
@@ -3397,30 +3459,30 @@
         <v>0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C36" s="6">
+        <v>236</v>
+      </c>
+      <c r="C36" s="7">
         <v>249</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="I36" s="1"/>
-      <c r="J36" s="4"/>
+      <c r="J36" s="3"/>
       <c r="K36" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
@@ -3430,30 +3492,30 @@
         <v>0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C37" s="6">
+        <v>236</v>
+      </c>
+      <c r="C37" s="7">
         <v>149.99</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="I37" s="1"/>
-      <c r="J37" s="4"/>
+      <c r="J37" s="3"/>
       <c r="K37" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
@@ -3463,34 +3525,34 @@
         <v>0</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C38" s="6">
+        <v>245</v>
+      </c>
+      <c r="C38" s="7">
         <v>299</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="I38" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
@@ -3500,34 +3562,34 @@
         <v>0</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C39" s="6">
+        <v>245</v>
+      </c>
+      <c r="C39" s="7">
         <v>299</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="I39" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
@@ -3537,34 +3599,34 @@
         <v>0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C40" s="6">
+        <v>256</v>
+      </c>
+      <c r="C40" s="7">
         <v>139</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="I40" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
@@ -3574,34 +3636,34 @@
         <v>0</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C41" s="6">
+        <v>256</v>
+      </c>
+      <c r="C41" s="7">
         <v>139</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="I41" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
@@ -3611,32 +3673,32 @@
         <v>0</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C42" s="6">
+        <v>270</v>
+      </c>
+      <c r="C42" s="7">
         <v>249</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
@@ -3646,34 +3708,34 @@
         <v>0</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C43" s="6">
+        <v>270</v>
+      </c>
+      <c r="C43" s="7">
         <v>249</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="I43" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
@@ -3683,32 +3745,32 @@
         <v>0</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C44" s="6">
+        <v>283</v>
+      </c>
+      <c r="C44" s="7">
         <v>179</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
@@ -3718,69 +3780,69 @@
         <v>0</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C45" s="6">
+        <v>283</v>
+      </c>
+      <c r="C45" s="7">
         <v>179</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="C46" s="6">
+        <v>296</v>
+      </c>
+      <c r="C46" s="7">
         <v>14.99</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I46" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
@@ -3790,30 +3852,30 @@
         <v>0</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C47" s="6">
+        <v>304</v>
+      </c>
+      <c r="C47" s="7">
         <v>110</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="I47" s="1"/>
-      <c r="J47" s="4"/>
+      <c r="J47" s="3"/>
       <c r="K47" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
@@ -3823,34 +3885,34 @@
         <v>0</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C48" s="6">
+        <v>310</v>
+      </c>
+      <c r="C48" s="7">
         <v>119</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="I48" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
@@ -3860,34 +3922,34 @@
         <v>0</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C49" s="6">
+        <v>310</v>
+      </c>
+      <c r="C49" s="7">
         <v>119</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="I49" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
@@ -3897,32 +3959,32 @@
         <v>0</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C50" s="7">
+        <v>119</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C50" s="6">
-        <v>119</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>342</v>
-      </c>
       <c r="G50" s="1" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="I50" s="1"/>
       <c r="J50" s="1" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
@@ -3932,34 +3994,34 @@
         <v>0</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C51" s="6">
+        <v>329</v>
+      </c>
+      <c r="C51" s="7">
         <v>199</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="I51" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
@@ -3969,34 +4031,34 @@
         <v>0</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="C52" s="6">
+        <v>337</v>
+      </c>
+      <c r="C52" s="7">
         <v>268</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="I52" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
@@ -4006,34 +4068,34 @@
         <v>0</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="C53" s="6">
+        <v>345</v>
+      </c>
+      <c r="C53" s="7">
         <v>398</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="I53" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
@@ -4043,34 +4105,34 @@
         <v>0</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="C54" s="6">
+        <v>345</v>
+      </c>
+      <c r="C54" s="7">
         <v>398</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="I54" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
@@ -4080,40 +4142,41 @@
         <v>0</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C55" s="7">
+        <v>398</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C55" s="6">
-        <v>398</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>377</v>
-      </c>
       <c r="G55" s="1" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="I55" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
